--- a/biology/Zoologie/Arbanitis_grayi/Arbanitis_grayi.xlsx
+++ b/biology/Zoologie/Arbanitis_grayi/Arbanitis_grayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis grayi est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis grayi est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans les Gloucester Caves vers Dungog[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans les Gloucester Caves vers Dungog.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,15 mm de long sur 3,99 mm et l'abdomen 4,24 mm de long sur 2,95 mm et la carapace de la femelle paratype mesure 6,57 mm de long sur 3,99 mm et l'abdomen 7,74 mm de long sur 2,95 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,15 mm de long sur 3,99 mm et l'abdomen 4,24 mm de long sur 2,95 mm et la carapace de la femelle paratype mesure 6,57 mm de long sur 3,99 mm et l'abdomen 7,74 mm de long sur 2,95 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael R. Gray[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael R. Gray.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart &amp; Rowell, 2008 : Trapdoor spiders of the genus Misgolas (Mygalomorphae: Idiopidae) from eastern New South Wales, with notes on genetic variation. Records of the Australian Museum, vol. 60, no , p. 45-86 (texte intégral).</t>
         </is>
